--- a/Bachelor Rapport/Evalueringsstoetteredskab.xlsx
+++ b/Bachelor Rapport/Evalueringsstoetteredskab.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_s_k\Documents\IKT\7.Semester\Bachelor-TilsynRamboell-\Bachelor Rapport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_s_k\Desktop\Bachelor-TilsynRamboell-\Bachelor Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1110,20 +1110,20 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="111.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="130.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="137.7109375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
